--- a/RawData/全市总量数据整理.xlsx
+++ b/RawData/全市总量数据整理.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a2def0afd6b499f5/Zotero/storage/LPLPNXCQ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Kang/Documents/R/XiamenCarbonPeak/RawData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="8_{1B3887C8-F0D0-4B90-9333-DAB9D162E85C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5641EE3-5A09-47D7-A7DD-93C15C2EE7EC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91FD0EE6-2DF5-7E4E-941E-25C510ED0E3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{3892D953-BD39-4F7C-9135-2E1DE10F3801}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="20720" windowHeight="13280" activeTab="1" xr2:uid="{3892D953-BD39-4F7C-9135-2E1DE10F3801}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,9 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -104,14 +102,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -125,7 +123,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -483,9 +481,9 @@
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" ht="17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -514,7 +512,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" ht="17">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -543,7 +541,7 @@
         <v>401.02</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" ht="17">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -572,7 +570,7 @@
         <v>406.62</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" ht="17">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -601,7 +599,7 @@
         <v>5.88</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" ht="17">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -641,12 +639,12 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" ht="17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -675,7 +673,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" ht="17">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -704,7 +702,7 @@
         <v>244.31</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" ht="17">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -733,7 +731,7 @@
         <v>597.38</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" ht="17">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -762,7 +760,7 @@
         <v>73.28</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" ht="17">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
